--- a/Financial Sales Dataset.xlsx
+++ b/Financial Sales Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\Microsoft Excel\data-analysis-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B73B7-EF43-4B4B-B2AD-04A527D933E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914439E8-6A5A-4112-939A-332DAADFE55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{A79D7D7A-889C-4899-9C6F-38C00CAD0778}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A79D7D7A-889C-4899-9C6F-38C00CAD0778}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="70">
   <si>
     <t>Government</t>
   </si>
@@ -211,12 +211,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Quick Statistics</t>
   </si>
   <si>
     <t>Manufacturing Cost</t>
@@ -2242,7 +2236,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3340,37 +3334,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="95000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -3399,37 +3362,6 @@
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1">
-                      <a:lumMod val="95000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="11"/>
@@ -8788,7 +8720,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8895,7 +8826,7 @@
           </a:effectLst>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -15698,7 +15629,7 @@
         <s v="2013"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Profit Margin" numFmtId="0" formula="Profit /' Sales'" databaseField="0"/>
+    <cacheField name="Profit Margin" numFmtId="0" formula="Profit/' Sales'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -27614,687 +27545,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAF4E982-44C0-4FBD-9D5B-4EE49CBCF47F}" name="PivotTable19" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Segment">
-  <location ref="F29:G35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Profit Margin" fld="15" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B14F24A-2089-4022-B79D-31093D0E2AD1}" name="PivotTable18" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Discount Band">
-  <location ref="F21:H26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Total Sales" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Total Profits" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8008F9A-FBCC-47DF-B4D6-CEB62A61A255}" name="PivotTable14" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Product">
-  <location ref="F12:G19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average Sale Price" fld="6" subtotal="average" baseField="2" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C2EC57F-881E-48F0-A60E-4D2F4B0A4E10}" name="PivotTable13" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Country">
-  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Percentage of Units Sold" fld="4" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B94CFAE-8C45-4982-AD40-DC5CF1B21755}" name="PivotTable12" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption="Product">
-  <location ref="B32:C39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Total Profit" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDF442CB-12DB-4688-9544-005E489AD752}" name="PivotTable11" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Segment">
-  <location ref="B23:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Total Sales" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Total Profit" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BDDD2A6-8147-46FF-B6EA-AAD0ECDEEB71}" name="PivotTable10" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Date">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1BDDD2A6-8147-46FF-B6EA-AAD0ECDEEB71}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Date">
   <location ref="B3:D20" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -28437,6 +27688,686 @@
     <dataField name="Total Profit" fld="10" baseField="11" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="2">
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8008F9A-FBCC-47DF-B4D6-CEB62A61A255}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Product">
+  <location ref="F12:G19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average Sale Price" fld="6" subtotal="average" baseField="2" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9C2EC57F-881E-48F0-A60E-4D2F4B0A4E10}" name="PivotTable13" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Country">
+  <location ref="F3:G9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Percentage of Units Sold" fld="4" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9B94CFAE-8C45-4982-AD40-DC5CF1B21755}" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15" rowHeaderCaption="Product">
+  <location ref="B32:C39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Total Profit" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDF442CB-12DB-4688-9544-005E489AD752}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" rowHeaderCaption="Segment">
+  <location ref="B23:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Total Sales" fld="9" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Total Profit" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DAF4E982-44C0-4FBD-9D5B-4EE49CBCF47F}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Segment">
+  <location ref="F29:G35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Profit Margin" fld="15" subtotal="average" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B14F24A-2089-4022-B79D-31093D0E2AD1}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" rowHeaderCaption="Discount Band">
+  <location ref="F21:H26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Total Sales" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Total Profits" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
     <chartFormat chart="3" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -28808,10 +28739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC13BBC-19A9-4D74-A2B2-843BD3B69304}">
-  <dimension ref="A1:S701"/>
+  <dimension ref="A1:O701"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28834,7 +28765,7 @@
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -28881,7 +28812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -28927,11 +28858,8 @@
       <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -28977,11 +28905,8 @@
       <c r="O3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -29028,7 +28953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -29075,7 +29000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -29122,7 +29047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -29169,7 +29094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -29216,7 +29141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -29263,7 +29188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -29310,7 +29235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -29357,7 +29282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -29404,7 +29329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -29451,7 +29376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -29498,7 +29423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -29545,7 +29470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -61820,13 +61745,13 @@
   <sheetData>
     <row r="4" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>40</v>
@@ -61835,27 +61760,27 @@
         <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="N4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="R4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8">
         <f>AVERAGE(financials[Units Sold])</f>
@@ -61900,7 +61825,7 @@
     </row>
     <row r="6" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8">
         <f>MEDIAN(financials[Units Sold])</f>
@@ -61942,7 +61867,7 @@
     </row>
     <row r="7" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="8">
         <f>MAX(financials[Units Sold])</f>
@@ -61984,7 +61909,7 @@
     </row>
     <row r="8" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8">
         <f>MIN(financials[Units Sold])</f>
@@ -62026,7 +61951,7 @@
     </row>
     <row r="9" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8">
         <f>D7-D8</f>
@@ -62068,7 +61993,7 @@
     </row>
     <row r="10" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="8">
         <f>_xlfn.PERCENTILE.EXC(financials[Units Sold], 0.25)</f>
@@ -62104,7 +62029,7 @@
     </row>
     <row r="11" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8">
         <f>_xlfn.PERCENTILE.EXC(financials[Units Sold], 0.75)</f>
@@ -62185,16 +62110,16 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -62293,7 +62218,7 @@
         <v>1148547.3899999999</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
@@ -62335,7 +62260,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -62451,7 +62376,7 @@
         <v>2025765.9000000008</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G19" s="16">
         <v>118.42857142857143</v>
@@ -62459,7 +62384,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="16">
         <v>118726350.26000001</v>
@@ -62473,10 +62398,10 @@
         <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -62495,10 +62420,10 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>30</v>
@@ -62561,7 +62486,7 @@
         <v>11388173.169999985</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" s="16">
         <v>118726350.26000005</v>
@@ -62594,7 +62519,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="16">
         <v>118726350.26000004</v>
@@ -62606,7 +62531,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -62630,7 +62555,7 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>0</v>
@@ -62675,7 +62600,7 @@
         <v>2114754.8800000004</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G35" s="14">
         <v>0.14229109395685369</v>
@@ -62707,7 +62632,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="16">
         <v>16893702.260000002</v>
@@ -62722,7 +62647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDF7159-1F06-4DA2-A2A1-0F2860A4448B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
